--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_AV-MCPS_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_AV-MCPS_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-1.134812061736286</v>
+        <v>-0.9383395006683993</v>
       </c>
       <c r="D2">
-        <v>0.2566160509347339</v>
+        <v>0.3582583152404712</v>
       </c>
       <c r="E2">
         <v>0.6193545288601702</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.1637377858623773</v>
+        <v>0.1373251200596857</v>
       </c>
       <c r="D3">
-        <v>0.8699572768385462</v>
+        <v>0.8920228717674139</v>
       </c>
       <c r="E3">
         <v>0.6193545288601702</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.4022597871996076</v>
+        <v>-0.4441432869990896</v>
       </c>
       <c r="D4">
-        <v>0.6875440492283094</v>
+        <v>0.6612770685126521</v>
       </c>
       <c r="E4">
         <v>0.6193545288601702</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.09649381905477622</v>
+        <v>0.09165742959291921</v>
       </c>
       <c r="D5">
-        <v>0.9231398986423223</v>
+        <v>0.9277997037381802</v>
       </c>
       <c r="E5">
         <v>0.6193545288601702</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.316931041596253</v>
+        <v>1.117102680396532</v>
       </c>
       <c r="D6">
-        <v>0.1880414503331442</v>
+        <v>0.2760023552355115</v>
       </c>
       <c r="E6">
         <v>0.6494155248680187</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.7905932624964502</v>
+        <v>0.815981944732308</v>
       </c>
       <c r="D7">
-        <v>0.4292930318175276</v>
+        <v>0.4232578134888247</v>
       </c>
       <c r="E7">
         <v>0.6494155248680187</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.572381274514916</v>
+        <v>1.422601133002142</v>
       </c>
       <c r="D8">
-        <v>0.116050564328485</v>
+        <v>0.1688771291495026</v>
       </c>
       <c r="E8">
         <v>0.6494155248680187</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.6038311752198521</v>
+        <v>-0.5800589973525314</v>
       </c>
       <c r="D9">
-        <v>0.546037461337018</v>
+        <v>0.5677688305398894</v>
       </c>
       <c r="E9">
         <v>0.6157499770895435</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.07057537614422772</v>
+        <v>-0.054918835384408</v>
       </c>
       <c r="D10">
-        <v>0.943744113302424</v>
+        <v>0.9566988197265618</v>
       </c>
       <c r="E10">
         <v>0.6157499770895435</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.6106912420954583</v>
+        <v>0.6028083558519614</v>
       </c>
       <c r="D11">
-        <v>0.5414866612764375</v>
+        <v>0.552800091285425</v>
       </c>
       <c r="E11">
         <v>0.6289404306070318</v>
